--- a/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-Practica1-e7/GIC-DIR-Practica2-e7.xlsx
+++ b/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-Practica1-e7/GIC-DIR-Practica2-e7.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-Practica1-e7/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_D250A0EE12E4D8F4A48D2986E315C3A318B88F7B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{751F6640-7814-46CA-9B21-BD78DC54D7E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,9 @@
     <sheet name="Administración" sheetId="3" r:id="rId3"/>
     <sheet name="Informes" sheetId="4" r:id="rId4"/>
     <sheet name="WAN" sheetId="5" r:id="rId5"/>
+    <sheet name="Routers" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="246">
   <si>
     <t>Depts.</t>
   </si>
@@ -643,12 +638,144 @@
   </si>
   <si>
     <t>He puesto en las ACL's de los routers la imposibilidad de que desde otras IP's se pueda conectar mediante ssh a los dispositivos de red para centrar toda la seguridad en el PC de administración 192.168.100.1. Si en un futuro se instalase otro nodo de acceso SSH en la red, mediante este PC se cambiarían las reglas de los routers para permitir el acceso de dichos nuevos PC's para así evitar el acceso de dispositivos maliciosos que consiguiesen un punto de acceso. Si diese un rango de direcciones IP's para permitir el servicio SSH se abriría un posible punto de error si alguien consiguiese conectarse a un switch con una IP del rango de hosts administradores. De esta forma se le asigna la responsabilidad a un único PC al que se le tiene supervisión y cae sobre la responsabilidad del administrador del sistema el darle acceso a otros dispositivos.</t>
+  </si>
+  <si>
+    <t>Introduje un router INET para la conexión con internet mediante el servicio punto a punto que me ofrece el teleoperador. Lo conecté con el router LAN y el roter ISP que me ofrecen.</t>
+  </si>
+  <si>
+    <t>FastEthernet0/1</t>
+  </si>
+  <si>
+    <t>FastEthernet1/0</t>
+  </si>
+  <si>
+    <t>IP Origen</t>
+  </si>
+  <si>
+    <t>IP Destino</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.10</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.100</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.101</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.102</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.103</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.104</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.105</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.150</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.151</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.152</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.153</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.154</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.155</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0.160</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>192.168.100.2/24</t>
+  </si>
+  <si>
+    <t>10.5.11.1/25</t>
+  </si>
+  <si>
+    <t>10.5.8.1/23</t>
+  </si>
+  <si>
+    <t>10.5.0.1/22</t>
+  </si>
+  <si>
+    <t>10.5.10.1/24</t>
+  </si>
+  <si>
+    <t>10.5.4.1/22</t>
+  </si>
+  <si>
+    <t>10.5.11.129/26</t>
+  </si>
+  <si>
+    <t>10.6.0.1/23</t>
+  </si>
+  <si>
+    <t>10.6.6.1/23</t>
+  </si>
+  <si>
+    <t>10.6.2.1/23</t>
+  </si>
+  <si>
+    <t>192.168.128.2/30</t>
+  </si>
+  <si>
+    <t>INET-Router</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet1/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet1/0.10</t>
+  </si>
+  <si>
+    <t>GigabitEthernet8/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet9/0</t>
+  </si>
+  <si>
+    <t>192.168.100.3/24</t>
+  </si>
+  <si>
+    <t>192.168.0.5/30</t>
+  </si>
+  <si>
+    <t>192.168.0.2/30</t>
+  </si>
+  <si>
+    <t>192.168.128.1/30</t>
+  </si>
+  <si>
+    <t>E4-SITE2-SIP</t>
+  </si>
+  <si>
+    <t>E4-VPC-S2-S3-A</t>
+  </si>
+  <si>
+    <t>E4-VPC-S1-S2-B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1421,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1621,6 +1748,21 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,7 +1806,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1857,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1791,9 +1933,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1831,7 +1973,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1903,7 +2045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2076,30 +2218,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" customWidth="1"/>
-    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
         <v>116</v>
       </c>
@@ -2111,7 +2253,7 @@
       <c r="G1" s="88"/>
       <c r="H1" s="88"/>
     </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2289,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2290,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +2468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2362,7 +2504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -2400,7 +2542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2418,7 +2560,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2440,7 +2582,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2454,7 +2596,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
         <v>23</v>
       </c>
@@ -2569,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="92" t="s">
         <v>24</v>
       </c>
@@ -2588,7 +2730,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>25</v>
       </c>
@@ -2614,7 +2756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +2775,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2648,7 +2790,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2662,7 +2804,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2676,7 +2818,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
         <v>115</v>
       </c>
@@ -2688,7 +2830,7 @@
       <c r="G24" s="87"/>
       <c r="H24" s="87"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2712,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>30</v>
       </c>
@@ -2734,7 +2876,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
@@ -2754,7 +2896,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>34</v>
       </c>
@@ -2774,7 +2916,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
@@ -2796,7 +2938,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
@@ -2816,7 +2958,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
@@ -2836,7 +2978,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -2858,7 +3000,7 @@
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2868,7 +3010,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2878,10 +3020,10 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="87" t="s">
         <v>114</v>
       </c>
@@ -2893,7 +3035,7 @@
       <c r="G38" s="87"/>
       <c r="H38" s="87"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
@@ -2919,7 +3061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>50</v>
       </c>
@@ -2941,7 +3083,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>54</v>
       </c>
@@ -2963,7 +3105,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
@@ -2981,7 +3123,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -2999,7 +3141,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>58</v>
       </c>
@@ -3017,7 +3159,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>59</v>
       </c>
@@ -3035,7 +3177,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>60</v>
       </c>
@@ -3053,7 +3195,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>61</v>
       </c>
@@ -3071,7 +3213,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
@@ -3089,7 +3231,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>63</v>
       </c>
@@ -3107,7 +3249,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>64</v>
       </c>
@@ -3125,7 +3267,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>65</v>
       </c>
@@ -3143,7 +3285,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>66</v>
       </c>
@@ -3161,7 +3303,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>67</v>
       </c>
@@ -3179,7 +3321,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -3197,7 +3339,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>69</v>
       </c>
@@ -3216,7 +3358,7 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+  <sortState ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -3235,22 +3377,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>50</v>
       </c>
@@ -3284,7 +3426,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
@@ -3301,7 +3443,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -3318,7 +3460,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -3335,7 +3477,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
@@ -3348,7 +3490,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -3361,7 +3503,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
@@ -3374,7 +3516,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
@@ -3387,7 +3529,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
@@ -3404,7 +3546,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
@@ -3421,7 +3563,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
@@ -3438,12 +3580,12 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
         <v>54</v>
       </c>
@@ -3477,7 +3619,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
@@ -3494,7 +3636,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
@@ -3511,7 +3653,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
@@ -3524,7 +3666,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
@@ -3537,7 +3679,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>78</v>
       </c>
@@ -3550,7 +3692,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>79</v>
       </c>
@@ -3563,7 +3705,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>80</v>
       </c>
@@ -3576,7 +3718,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3593,7 +3735,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -3610,7 +3752,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>83</v>
       </c>
@@ -3627,7 +3769,7 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
         <v>62</v>
       </c>
@@ -3661,7 +3803,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
@@ -3678,7 +3820,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3691,7 +3833,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>76</v>
       </c>
@@ -3704,7 +3846,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3717,7 +3859,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
@@ -3730,7 +3872,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>79</v>
       </c>
@@ -3743,7 +3885,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
@@ -3760,7 +3902,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>81</v>
       </c>
@@ -3777,7 +3919,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
@@ -3794,7 +3936,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
@@ -3811,7 +3953,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
         <v>63</v>
       </c>
@@ -3845,7 +3987,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
@@ -3862,7 +4004,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -3875,7 +4017,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -3888,7 +4030,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>77</v>
       </c>
@@ -3901,7 +4043,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
@@ -3914,7 +4056,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>79</v>
       </c>
@@ -3927,7 +4069,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
@@ -3944,7 +4086,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -3961,7 +4103,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>82</v>
       </c>
@@ -3978,7 +4120,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>83</v>
       </c>
@@ -4008,20 +4150,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4038,7 +4180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
@@ -4052,7 +4194,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
@@ -4066,7 +4208,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>56</v>
       </c>
@@ -4080,7 +4222,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
@@ -4094,7 +4236,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>58</v>
       </c>
@@ -4108,7 +4250,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>59</v>
       </c>
@@ -4122,7 +4264,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>60</v>
       </c>
@@ -4136,7 +4278,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
@@ -4150,7 +4292,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>62</v>
       </c>
@@ -4164,7 +4306,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>63</v>
       </c>
@@ -4178,7 +4320,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -4192,7 +4334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>66</v>
       </c>
@@ -4206,7 +4348,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
@@ -4220,7 +4362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>196</v>
       </c>
@@ -4230,7 +4372,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>84</v>
       </c>
@@ -4240,7 +4382,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>88</v>
       </c>
@@ -4250,7 +4392,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4261,24 +4403,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>96</v>
       </c>
@@ -4286,13 +4428,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
@@ -4300,7 +4442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
@@ -4308,7 +4450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
@@ -4316,7 +4458,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
@@ -4324,13 +4466,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
@@ -4338,7 +4480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
@@ -4346,7 +4488,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
@@ -4354,7 +4496,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
@@ -4362,7 +4504,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
@@ -4370,7 +4512,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
@@ -4378,7 +4520,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
@@ -4386,13 +4528,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
@@ -4400,7 +4542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
@@ -4408,7 +4550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
@@ -4416,7 +4558,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
@@ -4424,13 +4566,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
       <c r="B21" s="76" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="75">
         <v>45414</v>
       </c>
@@ -4438,7 +4580,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="75">
         <v>45419</v>
       </c>
@@ -4446,7 +4588,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="75">
         <v>45419</v>
       </c>
@@ -4454,7 +4596,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="75">
         <v>45420</v>
       </c>
@@ -4462,7 +4604,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
         <v>45420</v>
       </c>
@@ -4470,46 +4612,51 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
       <c r="B27" s="76" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="75">
+        <v>45421</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="75"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="75"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="75"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="75"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="75"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="75"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="75"/>
     </row>
   </sheetData>
@@ -4519,19 +4666,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
         <v>120</v>
@@ -4572,7 +4719,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="84" t="s">
         <v>132</v>
       </c>
@@ -4592,7 +4739,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="84" t="s">
         <v>137</v>
       </c>
@@ -4612,7 +4759,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="84" t="s">
         <v>142</v>
       </c>
@@ -4632,7 +4779,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="84" t="s">
         <v>147</v>
       </c>
@@ -4652,7 +4799,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="86" t="s">
         <v>152</v>
       </c>
@@ -4672,9 +4819,606 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:7" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="101" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="102">
+        <v>10</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="101" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="101" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-Practica1-e7/GIC-DIR-Practica2-e7.xlsx
+++ b/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-Practica1-e7/GIC-DIR-Practica2-e7.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necro\OneDrive\Documentos\2-cuatri\DIR\Proyecto\P1-e7 Internet Service Provider (ISP)\GIC-DIR-Practica1-e7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749C65BE-FB13-463A-80E6-6B38095A0953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="WAN" sheetId="5" r:id="rId5"/>
     <sheet name="Routers" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="258">
   <si>
     <t>Depts.</t>
   </si>
@@ -770,12 +776,48 @@
   </si>
   <si>
     <t>E4-VPC-S1-S2-B</t>
+  </si>
+  <si>
+    <t>192.168.128.6</t>
+  </si>
+  <si>
+    <t>192.168.128.5</t>
+  </si>
+  <si>
+    <t>192.168.128.5/30</t>
+  </si>
+  <si>
+    <t>IP's establecidas en el router INET</t>
+  </si>
+  <si>
+    <t>Reglas EIGRP establecidas en el router INET y LAN.  Encaminamiento regla dirección estática 0.0.0.0 establecida en el router INET.</t>
+  </si>
+  <si>
+    <t>Configuración NAT/PAT establecida en el router INET. Funciona conexión a IP's en Internet y Webs de la empresa accesibles desde Internet.</t>
+  </si>
+  <si>
+    <t>192.168.128.6/30</t>
+  </si>
+  <si>
+    <t>192.168.0.1/30</t>
+  </si>
+  <si>
+    <t>192.168.0.6/30</t>
+  </si>
+  <si>
+    <t>80.1.3.32</t>
+  </si>
+  <si>
+    <t>80.1.255.254 (0.0.0.0)</t>
+  </si>
+  <si>
+    <t>Ya puedo acceder por un navegador web desde un terminal de la empresa a las aplicaciones Web (no he hecho nada parece haberse arreglado solo, encontrar el posible problema)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1712,6 +1754,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,21 +1803,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1806,7 +1848,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1899,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1933,9 +1975,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1973,7 +2015,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2045,7 +2087,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2218,42 +2260,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" customWidth="1"/>
-    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.5546875" customWidth="1"/>
+    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-    </row>
-    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+    </row>
+    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2331,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2360,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2396,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2432,7 +2474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2504,7 +2546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -2542,7 +2584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2560,7 +2602,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2582,7 +2624,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2596,12 +2638,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
       <c r="J13" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2711,12 +2753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="92" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
       <c r="J14" s="22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2730,12 +2772,12 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="J15" s="22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2756,12 +2798,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="95" t="s">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
       <c r="J16" s="22">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2775,7 +2817,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2790,7 +2832,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2804,7 +2846,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2818,19 +2860,19 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
+    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-    </row>
-    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2854,7 +2896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>30</v>
       </c>
@@ -2876,7 +2918,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
@@ -2896,7 +2938,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>34</v>
       </c>
@@ -2916,7 +2958,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
@@ -2938,7 +2980,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
@@ -2958,7 +3000,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
@@ -2978,7 +3020,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -3000,7 +3042,7 @@
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -3010,7 +3052,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3020,22 +3062,22 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87" t="s">
+    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
@@ -3061,7 +3103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>50</v>
       </c>
@@ -3083,7 +3125,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>54</v>
       </c>
@@ -3105,7 +3147,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
@@ -3123,7 +3165,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -3141,7 +3183,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>58</v>
       </c>
@@ -3159,7 +3201,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>59</v>
       </c>
@@ -3177,7 +3219,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>60</v>
       </c>
@@ -3195,7 +3237,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>61</v>
       </c>
@@ -3213,7 +3255,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
@@ -3231,7 +3273,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>63</v>
       </c>
@@ -3249,7 +3291,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>64</v>
       </c>
@@ -3267,7 +3309,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>65</v>
       </c>
@@ -3285,7 +3327,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>66</v>
       </c>
@@ -3303,7 +3345,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>67</v>
       </c>
@@ -3321,7 +3363,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -3339,7 +3381,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>69</v>
       </c>
@@ -3358,7 +3400,7 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState ref="A3:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -3377,33 +3419,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
@@ -3426,7 +3468,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
@@ -3443,7 +3485,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -3460,7 +3502,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -3477,7 +3519,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
@@ -3490,7 +3532,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -3503,7 +3545,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
@@ -3516,7 +3558,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
@@ -3529,7 +3571,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
@@ -3546,7 +3588,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
@@ -3563,7 +3605,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
@@ -3580,23 +3622,23 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A16" s="98" t="s">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
@@ -3619,7 +3661,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
@@ -3636,7 +3678,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
@@ -3653,7 +3695,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
@@ -3666,7 +3708,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
@@ -3679,7 +3721,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>78</v>
       </c>
@@ -3692,7 +3734,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>79</v>
       </c>
@@ -3705,7 +3747,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>80</v>
       </c>
@@ -3718,7 +3760,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3735,7 +3777,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -3752,7 +3794,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>83</v>
       </c>
@@ -3769,18 +3811,18 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A29" s="98" t="s">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
@@ -3803,7 +3845,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
@@ -3820,7 +3862,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3833,7 +3875,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>76</v>
       </c>
@@ -3846,7 +3888,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3859,7 +3901,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
@@ -3872,7 +3914,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>79</v>
       </c>
@@ -3885,7 +3927,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
@@ -3902,7 +3944,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>81</v>
       </c>
@@ -3919,7 +3961,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
@@ -3936,7 +3978,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
@@ -3953,18 +3995,18 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A42" s="98" t="s">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
     </row>
     <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="59" t="s">
@@ -3987,7 +4029,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
@@ -4004,7 +4046,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -4017,7 +4059,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -4030,7 +4072,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>77</v>
       </c>
@@ -4043,7 +4085,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
@@ -4056,7 +4098,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>79</v>
       </c>
@@ -4069,7 +4111,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
@@ -4086,7 +4128,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -4103,7 +4145,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>82</v>
       </c>
@@ -4120,7 +4162,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>83</v>
       </c>
@@ -4150,20 +4192,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4180,7 +4222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
@@ -4194,7 +4236,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
@@ -4208,7 +4250,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>56</v>
       </c>
@@ -4222,7 +4264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
@@ -4236,7 +4278,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>58</v>
       </c>
@@ -4250,7 +4292,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>59</v>
       </c>
@@ -4264,7 +4306,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>60</v>
       </c>
@@ -4278,7 +4320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
@@ -4292,7 +4334,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>62</v>
       </c>
@@ -4306,7 +4348,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>63</v>
       </c>
@@ -4320,7 +4362,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -4334,7 +4376,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>66</v>
       </c>
@@ -4348,7 +4390,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
@@ -4362,7 +4404,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>196</v>
       </c>
@@ -4372,7 +4414,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>84</v>
       </c>
@@ -4382,7 +4424,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>88</v>
       </c>
@@ -4392,7 +4434,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4403,24 +4445,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>96</v>
       </c>
@@ -4428,13 +4470,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
@@ -4442,7 +4484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
@@ -4450,7 +4492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
@@ -4458,7 +4500,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
@@ -4466,13 +4508,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
@@ -4480,7 +4522,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
@@ -4488,7 +4530,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
@@ -4496,7 +4538,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
@@ -4504,7 +4546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
@@ -4512,7 +4554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
@@ -4520,7 +4562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
@@ -4528,13 +4570,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
@@ -4542,7 +4584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
@@ -4550,7 +4592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
@@ -4558,7 +4600,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
@@ -4566,13 +4608,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A21" s="75"/>
       <c r="B21" s="76" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="75">
         <v>45414</v>
       </c>
@@ -4580,7 +4622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="75">
         <v>45419</v>
       </c>
@@ -4588,7 +4630,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="75">
         <v>45419</v>
       </c>
@@ -4596,7 +4638,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="75">
         <v>45420</v>
       </c>
@@ -4604,7 +4646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="75">
         <v>45420</v>
       </c>
@@ -4612,13 +4654,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
       <c r="B27" s="76" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="75">
         <v>45421</v>
       </c>
@@ -4626,37 +4668,57 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
-    </row>
-    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
-    </row>
-    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-    </row>
-    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-    </row>
-    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="75">
+        <v>45424</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="75">
+        <v>45424</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="75">
+        <v>45425</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="75">
+        <v>45426</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
     </row>
-    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="75"/>
     </row>
-    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="75"/>
     </row>
-    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
     </row>
-    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
-    <row r="38" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="75"/>
     </row>
-    <row r="39" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="75"/>
     </row>
   </sheetData>
@@ -4666,19 +4728,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
         <v>120</v>
@@ -4719,7 +4781,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="84" t="s">
         <v>132</v>
       </c>
@@ -4739,7 +4801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="84" t="s">
         <v>137</v>
       </c>
@@ -4759,7 +4821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="84" t="s">
         <v>142</v>
       </c>
@@ -4779,7 +4841,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="84" t="s">
         <v>147</v>
       </c>
@@ -4799,7 +4861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="86" t="s">
         <v>152</v>
       </c>
@@ -4819,7 +4881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="2:7" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4827,590 +4889,590 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="88" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="F14" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="101" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="90" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="90" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="99" t="s">
+      <c r="E20" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-    </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="100" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E25" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="90" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="99" t="s">
+      <c r="E26" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C27" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D27" s="90">
+        <v>10</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E26" s="102" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="F26" s="102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="102">
-        <v>10</v>
-      </c>
-      <c r="E27" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="101" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E28" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="90" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="90" t="s">
         <v>221</v>
       </c>
       <c r="E29" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="102" t="s">
+      <c r="F29" s="90" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="A33" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="90" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-    </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="102" t="s">
+      <c r="E34" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="F34" s="90" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" s="102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="101" t="s">
-        <v>238</v>
-      </c>
-      <c r="B35" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="102" t="s">
-        <v>221</v>
+      <c r="E35" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-Practica1-e7/GIC-DIR-Practica2-e7.xlsx
+++ b/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-Practica1-e7/GIC-DIR-Practica2-e7.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necro\OneDrive\Documentos\2-cuatri\DIR\Proyecto\P1-e7 Internet Service Provider (ISP)\GIC-DIR-Practica1-e7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749C65BE-FB13-463A-80E6-6B38095A0953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="WAN" sheetId="5" r:id="rId5"/>
     <sheet name="Routers" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="257">
   <si>
     <t>Depts.</t>
   </si>
@@ -319,24 +313,15 @@
     <t>FastEthernet13/0</t>
   </si>
   <si>
-    <t>10.2.0.0/24</t>
-  </si>
-  <si>
     <t>Data Center</t>
   </si>
   <si>
-    <t>Le pongo /24 para que haya direcciones de sobra ya que uso un subdominio único para la red de administración</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Informe</t>
   </si>
   <si>
-    <t>10.2.0.1 ???</t>
-  </si>
-  <si>
     <t>He configurado dos terminales de mismo departamento (VLAN) con IP's estáticas y de diferente departamento para comprobar si funciona la conexión entre distintas VLANs (enlace 3). El paquete ICMP se transmite con éxito entre los PC 1A01 e 1C01.</t>
   </si>
   <si>
@@ -778,12 +763,6 @@
     <t>E4-VPC-S1-S2-B</t>
   </si>
   <si>
-    <t>192.168.128.6</t>
-  </si>
-  <si>
-    <t>192.168.128.5</t>
-  </si>
-  <si>
     <t>192.168.128.5/30</t>
   </si>
   <si>
@@ -805,19 +784,31 @@
     <t>192.168.0.6/30</t>
   </si>
   <si>
-    <t>80.1.3.32</t>
-  </si>
-  <si>
     <t>80.1.255.254 (0.0.0.0)</t>
   </si>
   <si>
     <t>Ya puedo acceder por un navegador web desde un terminal de la empresa a las aplicaciones Web (no he hecho nada parece haberse arreglado solo, encontrar el posible problema)</t>
+  </si>
+  <si>
+    <t>192.168.100.0/24</t>
+  </si>
+  <si>
+    <t>ISP-Router</t>
+  </si>
+  <si>
+    <t>192.168.100.4</t>
+  </si>
+  <si>
+    <t>INET-Router añadido a la red de administración.</t>
+  </si>
+  <si>
+    <t>80.1.3.32/16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1848,7 +1839,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1890,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1975,9 +1966,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2015,7 +2006,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2087,7 +2078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2260,32 +2251,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" customWidth="1"/>
-    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -2295,7 +2286,7 @@
       <c r="G1" s="93"/>
       <c r="H1" s="93"/>
     </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2322,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2348,10 +2339,10 @@
         <v>1024</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H3" s="16"/>
       <c r="J3" s="22">
@@ -2366,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2383,10 +2374,10 @@
         <v>1024</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H4" s="16"/>
       <c r="J4" s="22">
@@ -2402,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2419,10 +2410,10 @@
         <v>512</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22">
@@ -2438,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2455,10 +2446,10 @@
         <v>256</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H6" s="29"/>
       <c r="J6" s="22">
@@ -2474,7 +2465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2491,10 +2482,10 @@
         <v>128</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H7" s="16"/>
       <c r="J7" s="22">
@@ -2510,7 +2501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2527,10 +2518,10 @@
         <v>65</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H8" s="16"/>
       <c r="J8" s="22">
@@ -2546,15 +2537,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="25">
         <v>10</v>
@@ -2563,14 +2554,10 @@
         <v>256</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>95</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="16"/>
       <c r="J9" s="22">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2584,7 +2571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2602,7 +2589,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2624,7 +2611,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2638,7 +2625,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="94" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="97" t="s">
         <v>24</v>
       </c>
@@ -2772,7 +2759,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>25</v>
       </c>
@@ -2798,7 +2785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="100" t="s">
         <v>27</v>
       </c>
@@ -2817,7 +2804,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2832,7 +2819,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2846,7 +2833,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2860,9 +2847,9 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92"/>
@@ -2872,7 +2859,7 @@
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2896,7 +2883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>30</v>
       </c>
@@ -2911,14 +2898,14 @@
         <v>512</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
@@ -2933,12 +2920,12 @@
         <v>512</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>34</v>
       </c>
@@ -2953,12 +2940,12 @@
         <v>512</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
@@ -2973,14 +2960,14 @@
         <v>512</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
@@ -2995,12 +2982,12 @@
         <v>512</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3015,12 +3002,12 @@
         <v>512</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -3035,14 +3022,14 @@
         <v>512</v>
       </c>
       <c r="F32" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="36" t="s">
-        <v>177</v>
-      </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -3052,7 +3039,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3062,12 +3049,12 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="92" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="92"/>
       <c r="C38" s="92"/>
@@ -3077,7 +3064,7 @@
       <c r="G38" s="92"/>
       <c r="H38" s="92"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
@@ -3103,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>50</v>
       </c>
@@ -3125,7 +3112,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>54</v>
       </c>
@@ -3147,7 +3134,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
@@ -3165,7 +3152,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -3183,7 +3170,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>58</v>
       </c>
@@ -3201,7 +3188,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>59</v>
       </c>
@@ -3219,7 +3206,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>60</v>
       </c>
@@ -3237,7 +3224,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>61</v>
       </c>
@@ -3255,7 +3242,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
@@ -3273,7 +3260,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>63</v>
       </c>
@@ -3291,7 +3278,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>64</v>
       </c>
@@ -3309,7 +3296,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>65</v>
       </c>
@@ -3327,7 +3314,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>66</v>
       </c>
@@ -3345,7 +3332,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>67</v>
       </c>
@@ -3363,7 +3350,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -3381,7 +3368,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>69</v>
       </c>
@@ -3400,7 +3387,7 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+  <sortState ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -3419,22 +3406,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
         <v>50</v>
       </c>
@@ -3468,7 +3455,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
@@ -3485,7 +3472,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -3502,7 +3489,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -3519,7 +3506,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
@@ -3532,7 +3519,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -3545,7 +3532,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
@@ -3558,7 +3545,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
@@ -3571,7 +3558,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
@@ -3588,7 +3575,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
@@ -3605,7 +3592,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
@@ -3622,12 +3609,12 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="103" t="s">
         <v>54</v>
       </c>
@@ -3661,7 +3648,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
@@ -3678,7 +3665,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
@@ -3695,7 +3682,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
@@ -3708,7 +3695,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
@@ -3721,7 +3708,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>78</v>
       </c>
@@ -3734,7 +3721,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>79</v>
       </c>
@@ -3747,7 +3734,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>80</v>
       </c>
@@ -3760,7 +3747,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3777,7 +3764,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -3794,7 +3781,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>83</v>
       </c>
@@ -3811,7 +3798,7 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A29" s="103" t="s">
         <v>62</v>
       </c>
@@ -3824,7 +3811,7 @@
       <c r="H29" s="103"/>
       <c r="I29" s="103"/>
     </row>
-    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
         <v>73</v>
       </c>
@@ -3845,7 +3832,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
@@ -3862,7 +3849,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3875,7 +3862,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>76</v>
       </c>
@@ -3888,7 +3875,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3901,7 +3888,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
@@ -3914,7 +3901,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>79</v>
       </c>
@@ -3927,7 +3914,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
@@ -3944,7 +3931,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>81</v>
       </c>
@@ -3961,7 +3948,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
@@ -3978,7 +3965,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
@@ -3995,7 +3982,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="103" t="s">
         <v>63</v>
       </c>
@@ -4008,7 +3995,7 @@
       <c r="H42" s="103"/>
       <c r="I42" s="103"/>
     </row>
-    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
         <v>73</v>
       </c>
@@ -4029,7 +4016,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
@@ -4046,7 +4033,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -4059,7 +4046,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -4072,7 +4059,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>77</v>
       </c>
@@ -4085,7 +4072,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
@@ -4098,7 +4085,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>79</v>
       </c>
@@ -4111,7 +4098,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
@@ -4128,7 +4115,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -4145,7 +4132,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>82</v>
       </c>
@@ -4162,7 +4149,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>83</v>
       </c>
@@ -4192,20 +4179,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4222,7 +4209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
@@ -4233,10 +4220,10 @@
         <v>90</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
@@ -4247,10 +4234,10 @@
         <v>55</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>56</v>
       </c>
@@ -4261,10 +4248,10 @@
         <v>55</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
@@ -4275,10 +4262,10 @@
         <v>55</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>58</v>
       </c>
@@ -4289,10 +4276,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>59</v>
       </c>
@@ -4303,10 +4290,10 @@
         <v>55</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>60</v>
       </c>
@@ -4317,10 +4304,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
@@ -4331,10 +4318,10 @@
         <v>55</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>62</v>
       </c>
@@ -4345,10 +4332,10 @@
         <v>55</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>63</v>
       </c>
@@ -4359,10 +4346,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -4373,10 +4360,10 @@
         <v>55</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>66</v>
       </c>
@@ -4387,10 +4374,10 @@
         <v>55</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
@@ -4401,40 +4388,50 @@
         <v>55</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
-        <v>88</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4445,280 +4442,285 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
       <c r="B21" s="76" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="75">
         <v>45414</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="75">
         <v>45419</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="75">
         <v>45419</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="75">
         <v>45420</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
         <v>45420</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
       <c r="B27" s="76" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="75">
         <v>45421</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="75">
         <v>45424</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
         <v>45424</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="75">
         <v>45425</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A32" s="75">
         <v>45426</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="75">
+        <v>45429</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="75"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="75"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="75"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="75"/>
     </row>
   </sheetData>
@@ -4728,160 +4730,160 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="F3" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="G3" s="83" t="s">
         <v>122</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="F4" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="G4" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="85" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="C5" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="E5" s="85" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="84" t="s">
+      <c r="F5" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="85" t="s">
+      <c r="G5" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="85" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="C6" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="E6" s="85" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84" t="s">
+      <c r="F6" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="85" t="s">
+      <c r="G6" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="85" t="s">
+    </row>
+    <row r="7" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="C7" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="E7" s="85" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="84" t="s">
+      <c r="F7" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="85" t="s">
+      <c r="G7" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="85" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="C8" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="E8" s="85" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="84" t="s">
+      <c r="F8" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="85" t="s">
+      <c r="G8" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="85" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="C9" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="F9" s="85" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="86" t="s">
+      <c r="G9" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="10" spans="2:7" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4889,23 +4891,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>84</v>
       </c>
@@ -4929,13 +4931,13 @@
         <v>71</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>91</v>
       </c>
@@ -4946,18 +4948,18 @@
         <v>50</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>76</v>
@@ -4966,18 +4968,18 @@
         <v>50</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>76</v>
@@ -4986,18 +4988,18 @@
         <v>50</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>76</v>
@@ -5006,18 +5008,18 @@
         <v>50</v>
       </c>
       <c r="D7" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="87" t="s">
-        <v>224</v>
-      </c>
       <c r="F7" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>76</v>
@@ -5026,18 +5028,18 @@
         <v>50</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="89" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B9" s="87" t="s">
         <v>76</v>
@@ -5046,18 +5048,18 @@
         <v>50</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B10" s="87" t="s">
         <v>76</v>
@@ -5066,18 +5068,18 @@
         <v>50</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B11" s="87" t="s">
         <v>76</v>
@@ -5086,18 +5088,18 @@
         <v>50</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="89" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B12" s="87" t="s">
         <v>76</v>
@@ -5106,18 +5108,18 @@
         <v>50</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B13" s="87" t="s">
         <v>76</v>
@@ -5126,18 +5128,18 @@
         <v>50</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B14" s="87" t="s">
         <v>76</v>
@@ -5146,18 +5148,18 @@
         <v>50</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E14" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>76</v>
@@ -5166,18 +5168,18 @@
         <v>50</v>
       </c>
       <c r="D15" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>76</v>
@@ -5186,18 +5188,18 @@
         <v>50</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B17" s="87" t="s">
         <v>76</v>
@@ -5206,18 +5208,18 @@
         <v>50</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="89" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B18" s="87" t="s">
         <v>76</v>
@@ -5226,58 +5228,58 @@
         <v>50</v>
       </c>
       <c r="D18" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E18" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>234</v>
-      </c>
       <c r="C19" s="87" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F19" s="90" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="89" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E20" s="90" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F20" s="90" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A23" s="103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B23" s="103"/>
       <c r="C23" s="103"/>
@@ -5299,35 +5301,35 @@
         <v>71</v>
       </c>
       <c r="E24" s="88" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="87" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F25" s="90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="89" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="89" t="s">
-        <v>235</v>
       </c>
       <c r="B26" s="87" t="s">
         <v>76</v>
@@ -5336,18 +5338,18 @@
         <v>50</v>
       </c>
       <c r="D26" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E26" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F26" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B27" s="87" t="s">
         <v>76</v>
@@ -5359,55 +5361,55 @@
         <v>10</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F27" s="90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>240</v>
-      </c>
       <c r="F28" s="90" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>241</v>
-      </c>
       <c r="F29" s="90" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B32" s="103"/>
       <c r="C32" s="103"/>
@@ -5429,50 +5431,50 @@
         <v>71</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C34" s="87" t="s">
         <v>84</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F34" s="90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="89" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B35" s="87" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="87" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E35" s="90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F35" s="90" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
